--- a/提示.xlsx
+++ b/提示.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32138\Desktop\infinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158C94A-8D1D-4AED-82E1-3E6C0482F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2EA44-C63B-40E3-B284-224770469A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5486" yWindow="471" windowWidth="16457" windowHeight="10912" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总体流程" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>qt creator</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以先用多个rectangle布局，等到位置合适后，再把控件填进去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tips</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +230,23 @@
   </si>
   <si>
     <t xml:space="preserve">RowLayout和ColumnLayout里面的第一个元素不能直接使用parent </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可以先用多个rectangle布局，等到位置合适后，再把控件填进去
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了能够打印调试信息，在creator设置中选择构建和运行，在default build properties里设置qml debugging为enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python（系统）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,13 +342,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,64 +695,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC994FC0-1E5F-4928-BDA0-84BCC107D47A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="63.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20.640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="63.28515625" style="14" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13">
+        <v>3.11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="10">
-        <v>3.11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="10">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -799,55 +822,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F9016B-AA0E-45E2-9A18-42EE5E789E82}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="84.0703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="84.0703125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="108" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="234" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="234" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>41</v>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -902,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
